--- a/backups/Scanner_Physiology_2025-07-21T09-40-13.xlsx
+++ b/backups/Scanner_Physiology_2025-07-21T09-40-13.xlsx
@@ -439,7 +439,7 @@
         <v>Manual</v>
       </c>
       <c r="F2" t="str">
-        <v>231249@med.asu.edu.eg</v>
+        <v>mai_tarek@med.asu.edu.eg</v>
       </c>
     </row>
   </sheetData>
